--- a/va_facility_data_2025-02-20/Stamford VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Stamford%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Stamford VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Stamford%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Reb04f106600c43d4a2d7bf09a9e1c43f"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rdc57bc93c5944e61a69dee1ae2141af1"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Re3875ec1f5dd4829b17e95bf3b4c0d5b"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R17ea351c8d454265860fc268704dccc6"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R3526e1a45e674d3bb33ccd0e3062499a"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rd1f3b14d845f40489b3dc843c3dd01c3"/>
   </x:sheets>
 </x:workbook>
 </file>
